--- a/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Choeruman/Choeruman.xlsx
+++ b/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Choeruman/Choeruman.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\07-02-2024\Macro\WO BUDGETING\Choeruman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32229421-5398-4F90-8833-0B7C16336D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C112354-AF2C-40F0-BF05-2F5C8F48558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{6415D1BF-B055-47F2-A429-F3AF081DFD2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{029F423B-0C51-4773-9F66-4520F8D8B8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Choeruman" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Periode : February-2024</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>MAJA-1</t>
@@ -744,8 +747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587B18F6-FA94-444D-BFF9-F73F2020CEFF}">
-  <sheetPr codeName="Sheet17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040B60EB-EB1D-4C52-A8D8-72E8DB2FC626}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -955,7 +957,9 @@
       <c r="P6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -968,7 +972,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>22</v>
@@ -994,7 +998,7 @@
         <v>0.14549046058094808</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O7" s="33">
         <v>2</v>
@@ -1002,7 +1006,9 @@
       <c r="P7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="38"/>
+      <c r="Q7" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -1015,10 +1021,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27">
@@ -1041,7 +1047,7 @@
         <v>0.17602872866108524</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="26">
         <v>2</v>
@@ -1049,7 +1055,9 @@
       <c r="P8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
@@ -1059,13 +1067,13 @@
         <v>19</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34">
@@ -1098,7 +1106,9 @@
       <c r="P9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="38"/>
+      <c r="Q9" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
@@ -1111,10 +1121,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27">
@@ -1139,15 +1149,17 @@
         <v>0</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="26">
         <v>2</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="31"/>
+        <v>34</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
@@ -1160,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34">
@@ -1188,7 +1200,7 @@
         <v>4.0589679942905153E-2</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="33">
         <v>2</v>
@@ -1196,7 +1208,9 @@
       <c r="P11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="38"/>
+      <c r="Q11" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I11">
@@ -1210,12 +1224,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{3345790B-330E-46E4-8FA8-16DA2E263E53}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{588C2E96-6418-47B7-9B16-CEF35CD62B75}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{A1BFDAB8-2722-4717-8187-D45B4928D765}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{A80FD2F9-7E74-4289-A1F3-645293B254CF}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{F680C2E9-A2E3-44DB-A6D1-557129DCFA00}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{BE08F73C-3A5B-4F1C-9D18-E6C170C3820F}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{0C992F9F-12F6-4D6C-AC64-36AFFC262653}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{8AA75144-2B6B-4D33-99D1-83784D929FC1}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{8A687861-FF46-484A-9935-1C8989BD2AD2}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{77CF956D-3A58-48D3-B0F8-7AEA7A2E359D}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{B1823F02-BF29-4834-8B8B-093DC5334BF2}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{694AF58F-57CF-4F53-B06E-C8E8DC5B8915}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
